--- a/backlog/datos.xlsx
+++ b/backlog/datos.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923D3BC8-A72B-4607-BE6B-C94C6FF457D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
   <si>
     <t>ID</t>
   </si>
@@ -55,14 +56,94 @@
   </si>
   <si>
     <t>Congelados</t>
+  </si>
+  <si>
+    <t>Almacén</t>
+  </si>
+  <si>
+    <t>Kiosko</t>
+  </si>
+  <si>
+    <t>Lavandina</t>
+  </si>
+  <si>
+    <t>Tallarin</t>
+  </si>
+  <si>
+    <t>Paty</t>
+  </si>
+  <si>
+    <t>Marca</t>
+  </si>
+  <si>
+    <t>Marolio</t>
+  </si>
+  <si>
+    <t>Ayudín</t>
+  </si>
+  <si>
+    <t>Hamburguesa</t>
+  </si>
+  <si>
+    <t>Jabón</t>
+  </si>
+  <si>
+    <t>Lux</t>
+  </si>
+  <si>
+    <t>Alfajor</t>
+  </si>
+  <si>
+    <t>Aguila</t>
+  </si>
+  <si>
+    <t>Harina 000</t>
+  </si>
+  <si>
+    <t>Favorita</t>
+  </si>
+  <si>
+    <t>Jabón en Polvo</t>
+  </si>
+  <si>
+    <t>Papas Fritas</t>
+  </si>
+  <si>
+    <t>Ala</t>
+  </si>
+  <si>
+    <t>Mc Cain</t>
+  </si>
+  <si>
+    <t>Shampoo</t>
+  </si>
+  <si>
+    <t>Head &amp; Shoulders</t>
+  </si>
+  <si>
+    <t>Turrón</t>
+  </si>
+  <si>
+    <t>Arcor</t>
+  </si>
+  <si>
+    <t>Activo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -78,7 +159,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -86,12 +167,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -371,120 +476,316 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H1" sqref="H1:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>7</v>
       </c>
-      <c r="O1">
+      <c r="P1">
         <v>1</v>
       </c>
-      <c r="P1">
+      <c r="Q1">
         <v>2</v>
       </c>
-      <c r="Q1">
+      <c r="R1">
         <v>3</v>
       </c>
-      <c r="R1">
+      <c r="S1">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="O2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2">
+        <v>10</v>
+      </c>
+      <c r="G2" s="3">
+        <v>44133</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="P2" t="s">
         <v>8</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>11</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="2">
+        <v>5</v>
+      </c>
+      <c r="G3" s="3">
+        <v>44134</v>
+      </c>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="2">
+        <v>20</v>
+      </c>
+      <c r="G4" s="3">
+        <v>44135</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="2">
+        <v>30</v>
+      </c>
+      <c r="G5" s="3">
+        <v>44136</v>
+      </c>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="B6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="2">
+        <v>20</v>
+      </c>
+      <c r="G6" s="3">
+        <v>44137</v>
+      </c>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="B7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="2">
+        <v>50</v>
+      </c>
+      <c r="G7" s="3">
+        <v>44138</v>
+      </c>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="2">
+        <v>50</v>
+      </c>
+      <c r="G8" s="3">
+        <v>44139</v>
+      </c>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="B9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="2">
+        <v>60</v>
+      </c>
+      <c r="G9" s="3">
+        <v>44140</v>
+      </c>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="B10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="2">
+        <v>40</v>
+      </c>
+      <c r="G10" s="3">
+        <v>44141</v>
+      </c>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
+      <c r="B11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="2">
+        <v>10</v>
+      </c>
+      <c r="G11" s="3">
+        <v>44142</v>
+      </c>
+      <c r="H11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/backlog/datos.xlsx
+++ b/backlog/datos.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923D3BC8-A72B-4607-BE6B-C94C6FF457D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E11376-C760-4949-8283-9F088D6C5481}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -480,7 +480,7 @@
   <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/backlog/datos.xlsx
+++ b/backlog/datos.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E11376-C760-4949-8283-9F088D6C5481}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03D1015-E35F-4477-9ED9-06C3A26C44EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3255" yWindow="105" windowWidth="15105" windowHeight="10590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -70,9 +70,6 @@
     <t>Tallarin</t>
   </si>
   <si>
-    <t>Paty</t>
-  </si>
-  <si>
     <t>Marca</t>
   </si>
   <si>
@@ -82,9 +79,6 @@
     <t>Ayudín</t>
   </si>
   <si>
-    <t>Hamburguesa</t>
-  </si>
-  <si>
     <t>Jabón</t>
   </si>
   <si>
@@ -103,15 +97,9 @@
     <t>Favorita</t>
   </si>
   <si>
-    <t>Jabón en Polvo</t>
-  </si>
-  <si>
     <t>Papas Fritas</t>
   </si>
   <si>
-    <t>Ala</t>
-  </si>
-  <si>
     <t>Mc Cain</t>
   </si>
   <si>
@@ -128,6 +116,18 @@
   </si>
   <si>
     <t>Activo</t>
+  </si>
+  <si>
+    <t>Salchicha</t>
+  </si>
+  <si>
+    <t>Union</t>
+  </si>
+  <si>
+    <t>Detergente</t>
+  </si>
+  <si>
+    <t>Magistral</t>
   </si>
 </sst>
 </file>
@@ -480,7 +480,7 @@
   <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,7 +499,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
@@ -540,13 +540,13 @@
         <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F2" s="2">
         <v>10</v>
@@ -576,13 +576,13 @@
         <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F3" s="2">
         <v>5</v>
@@ -597,16 +597,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F4" s="2">
         <v>20</v>
@@ -621,16 +621,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F5" s="2">
         <v>30</v>
@@ -645,16 +645,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F6" s="2">
         <v>20</v>
@@ -669,16 +669,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F7" s="2">
         <v>50</v>
@@ -693,16 +693,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F8" s="2">
         <v>50</v>
@@ -717,16 +717,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F9" s="2">
         <v>60</v>
@@ -741,16 +741,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F10" s="2">
         <v>40</v>
@@ -765,16 +765,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2">
         <v>10</v>

--- a/backlog/datos.xlsx
+++ b/backlog/datos.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03D1015-E35F-4477-9ED9-06C3A26C44EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="3255" yWindow="105" windowWidth="15105" windowHeight="10590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3255" yWindow="105" windowWidth="15105" windowHeight="10590"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -133,7 +132,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -476,7 +475,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/backlog/datos.xlsx
+++ b/backlog/datos.xlsx
@@ -1,13 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D4E70F-E7B2-48AA-B8EE-24D8CECA8F87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3255" yWindow="105" windowWidth="15105" windowHeight="10590"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="3" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="60">
   <si>
     <t>ID</t>
   </si>
@@ -27,24 +30,12 @@
     <t>Nombre</t>
   </si>
   <si>
-    <t>Estado</t>
-  </si>
-  <si>
     <t>Stock</t>
   </si>
   <si>
-    <t>Fecha Crea</t>
-  </si>
-  <si>
-    <t>Fecha Mod</t>
-  </si>
-  <si>
     <t>Categoría ID</t>
   </si>
   <si>
-    <t>Cat</t>
-  </si>
-  <si>
     <t>Almacen</t>
   </si>
   <si>
@@ -54,12 +45,6 @@
     <t>Limpieza</t>
   </si>
   <si>
-    <t>Congelados</t>
-  </si>
-  <si>
-    <t>Almacén</t>
-  </si>
-  <si>
     <t>Kiosko</t>
   </si>
   <si>
@@ -90,9 +75,6 @@
     <t>Aguila</t>
   </si>
   <si>
-    <t>Harina 000</t>
-  </si>
-  <si>
     <t>Favorita</t>
   </si>
   <si>
@@ -105,18 +87,12 @@
     <t>Shampoo</t>
   </si>
   <si>
-    <t>Head &amp; Shoulders</t>
-  </si>
-  <si>
     <t>Turrón</t>
   </si>
   <si>
     <t>Arcor</t>
   </si>
   <si>
-    <t>Activo</t>
-  </si>
-  <si>
     <t>Salchicha</t>
   </si>
   <si>
@@ -127,12 +103,111 @@
   </si>
   <si>
     <t>Magistral</t>
+  </si>
+  <si>
+    <t>Usuario</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Perfil</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>supervisor</t>
+  </si>
+  <si>
+    <t>operador</t>
+  </si>
+  <si>
+    <t>cris</t>
+  </si>
+  <si>
+    <t>cristian</t>
+  </si>
+  <si>
+    <t>maxi</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>pepe</t>
+  </si>
+  <si>
+    <t>mujica</t>
+  </si>
+  <si>
+    <t>Categoria</t>
+  </si>
+  <si>
+    <t>Heladera</t>
+  </si>
+  <si>
+    <t>Freezer</t>
+  </si>
+  <si>
+    <t>Bebidas</t>
+  </si>
+  <si>
+    <t>Hogar</t>
+  </si>
+  <si>
+    <t>PlusBell</t>
+  </si>
+  <si>
+    <t>Harina</t>
+  </si>
+  <si>
+    <t>Fideos</t>
+  </si>
+  <si>
+    <t>San Vicente</t>
+  </si>
+  <si>
+    <t>Golosina</t>
+  </si>
+  <si>
+    <t>Dentrifico</t>
+  </si>
+  <si>
+    <t>Colgate</t>
+  </si>
+  <si>
+    <t>Blem</t>
+  </si>
+  <si>
+    <t>Hamburguesa</t>
+  </si>
+  <si>
+    <t>Paty</t>
+  </si>
+  <si>
+    <t>Cerveza</t>
+  </si>
+  <si>
+    <t>Quilmes</t>
+  </si>
+  <si>
+    <t>Aquarius</t>
+  </si>
+  <si>
+    <t>Agua Saborizada</t>
+  </si>
+  <si>
+    <t>Almohada</t>
+  </si>
+  <si>
+    <t>Fiberball</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -158,7 +233,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -166,34 +241,28 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -475,11 +544,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,301 +559,557 @@
     <col min="7" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="5">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" t="s">
-        <v>7</v>
-      </c>
-      <c r="P1">
-        <v>1</v>
-      </c>
-      <c r="Q1">
-        <v>2</v>
-      </c>
-      <c r="R1">
-        <v>3</v>
-      </c>
-      <c r="S1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="2">
-        <v>10</v>
-      </c>
-      <c r="G2" s="3">
-        <v>44133</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="P2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>10</v>
-      </c>
-      <c r="R2" t="s">
-        <v>11</v>
-      </c>
-      <c r="S2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="2">
-        <v>5</v>
-      </c>
-      <c r="G3" s="3">
-        <v>44134</v>
-      </c>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="2">
-        <v>20</v>
-      </c>
-      <c r="G4" s="3">
-        <v>44135</v>
-      </c>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="2">
-        <v>30</v>
-      </c>
-      <c r="G5" s="3">
-        <v>44136</v>
-      </c>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="2">
-        <v>20</v>
-      </c>
-      <c r="G6" s="3">
-        <v>44137</v>
-      </c>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="2">
-        <v>50</v>
-      </c>
-      <c r="G7" s="3">
-        <v>44138</v>
-      </c>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="2">
-        <v>50</v>
-      </c>
-      <c r="G8" s="3">
-        <v>44139</v>
-      </c>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="2">
-        <v>60</v>
-      </c>
-      <c r="G9" s="3">
-        <v>44140</v>
-      </c>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="2">
-        <v>40</v>
-      </c>
-      <c r="G10" s="3">
-        <v>44141</v>
-      </c>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="2">
-        <v>10</v>
-      </c>
-      <c r="G11" s="3">
-        <v>44142</v>
-      </c>
-      <c r="H11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF6C8BEE-1FD0-4685-A47C-181E12963462}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF893D0-E0D9-4654-AE49-3769D38634A9}">
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="2">
+        <v>20</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2">
+        <v>30</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="2">
+        <v>20</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2">
+        <v>50</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="2">
+        <v>50</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="2">
+        <v>60</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="2">
+        <v>40</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="2">
+        <v>10</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="6">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>